--- a/col9a3_excel.xlsx
+++ b/col9a3_excel.xlsx
@@ -10,13 +10,14 @@
     <sheet name="col9a3_to_excel" sheetId="1" r:id="rId1"/>
     <sheet name="vcf color" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
+    <sheet name="variant_effect" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1101" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1127" uniqueCount="157">
   <si>
     <t>chr24</t>
   </si>
@@ -460,6 +461,33 @@
   </si>
   <si>
     <t>chloe</t>
+  </si>
+  <si>
+    <t>24_46663029_T/A</t>
+  </si>
+  <si>
+    <t>24:46663029</t>
+  </si>
+  <si>
+    <t>NM_001197171.1</t>
+  </si>
+  <si>
+    <t>Transcript</t>
+  </si>
+  <si>
+    <t>splice_acceptor_variant</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>IMPACT=HIGH;STRAND=1</t>
+  </si>
+  <si>
+    <t>24_46663030_T/G</t>
+  </si>
+  <si>
+    <t>24:46663030</t>
   </si>
 </sst>
 </file>
@@ -970,7 +998,7 @@
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
@@ -979,6 +1007,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="42" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -5715,4 +5744,107 @@
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A1" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="6">
+        <v>612430</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A2" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="6">
+        <v>612430</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>154</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>